--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/30.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/30.xlsx
@@ -479,13 +479,13 @@
         <v>-0.01740917312768288</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.11676481709614</v>
+        <v>-2.126488172524858</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04958071877009573</v>
+        <v>0.0498265168028252</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.03497563425087129</v>
+        <v>-0.03349413692705025</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.007326473885316093</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.174099190472488</v>
+        <v>-2.184325120538846</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03942866511180886</v>
+        <v>-0.03868212220346923</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06433538586749254</v>
+        <v>-0.05812578345752057</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.004584673952973292</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.319429869486662</v>
+        <v>-2.333606865696994</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.06146265948000919</v>
+        <v>-0.06203354523344538</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03953723099227001</v>
+        <v>-0.03660351253711185</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.0129763842485819</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.479885971363511</v>
+        <v>-2.487593538955576</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09317304538481748</v>
+        <v>-0.08967332054163712</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04456724681341125</v>
+        <v>-0.03846072099780969</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.02922034595581554</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.654527608340166</v>
+        <v>-2.652805192349029</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.05252610172429665</v>
+        <v>-0.05048408729854415</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.03286408886796951</v>
+        <v>-0.03025789781622506</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.04644208423837</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.63050283288306</v>
+        <v>-2.615324956842184</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.03594662796825419</v>
+        <v>-0.0340912492695866</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.04164145732705081</v>
+        <v>-0.03867968252076224</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.05733246597664131</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.484209089120301</v>
+        <v>-2.459800063636844</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03810818684664931</v>
+        <v>-0.03166010545206884</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.001842303407209785</v>
+        <v>-0.001128086294737809</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.05737628694299519</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.068759790391331</v>
+        <v>-2.047334496858525</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.05246510965662184</v>
+        <v>-0.0472027140576396</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01747571418743146</v>
+        <v>0.01165707093125498</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.04314064861837245</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.680812424897608</v>
+        <v>-1.654105218304164</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1139804892720775</v>
+        <v>-0.1161225306888167</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04614808520135766</v>
+        <v>0.04806140636431631</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.009341975941793564</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.169543977930841</v>
+        <v>-1.140275104495055</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3004228715024541</v>
+        <v>-0.3059103278311563</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06510137023130357</v>
+        <v>0.0663443885705161</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.04592337818498061</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6288200218012039</v>
+        <v>-0.5916233994090468</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.599188245562753</v>
+        <v>-0.6040651712940305</v>
       </c>
       <c r="G12" t="n">
-        <v>0.145374250339469</v>
+        <v>0.1435359494197503</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1233207995491427</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.03377592027970786</v>
+        <v>-0.001283616067308564</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.928091020102527</v>
+        <v>-0.9349965420046685</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2330723047663652</v>
+        <v>0.2378650614442515</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2176990325407345</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5598153501897744</v>
+        <v>0.6043108933205754</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.299580895975557</v>
+        <v>-1.308958426380559</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3859019585011563</v>
+        <v>0.3887844436194677</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3250455077965883</v>
       </c>
       <c r="E15" t="n">
-        <v>1.068184844179957</v>
+        <v>1.119017463142171</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.676675942867902</v>
+        <v>-1.702179775966122</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5136754609144605</v>
+        <v>0.519801504191718</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4435337288063733</v>
       </c>
       <c r="E16" t="n">
-        <v>1.62825792385875</v>
+        <v>1.683664337975897</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.057329876909072</v>
+        <v>-2.086493843988458</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6570080397916076</v>
+        <v>0.6667387142684461</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5755386241406846</v>
       </c>
       <c r="E17" t="n">
-        <v>2.123252467328525</v>
+        <v>2.18326561231715</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.493729340963661</v>
+        <v>-2.522885379074249</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8236786234438425</v>
+        <v>0.8386607149474817</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.718254453384719</v>
       </c>
       <c r="E18" t="n">
-        <v>2.511765229289594</v>
+        <v>2.564315994798206</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.931240080491285</v>
+        <v>-2.959922210236039</v>
       </c>
       <c r="G18" t="n">
-        <v>1.024623089605257</v>
+        <v>1.041503864175614</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8661255529958815</v>
       </c>
       <c r="E19" t="n">
-        <v>2.758974618465056</v>
+        <v>2.815463031862754</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.331280953163569</v>
+        <v>-3.35592571298859</v>
       </c>
       <c r="G19" t="n">
-        <v>1.182018609526185</v>
+        <v>1.204559447976763</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.010335372297625</v>
       </c>
       <c r="E20" t="n">
-        <v>3.064241137018812</v>
+        <v>3.124802600695834</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.769352514753463</v>
+        <v>-3.790012052876611</v>
       </c>
       <c r="G20" t="n">
-        <v>1.345859771158985</v>
+        <v>1.372207734473825</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.145711770770619</v>
       </c>
       <c r="E21" t="n">
-        <v>3.384743474077736</v>
+        <v>3.42958728191496</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.14862284373943</v>
+        <v>-4.155970558132213</v>
       </c>
       <c r="G21" t="n">
-        <v>1.535484109559957</v>
+        <v>1.567226821260632</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.268530060948468</v>
       </c>
       <c r="E22" t="n">
-        <v>3.553380441991806</v>
+        <v>3.601288491309012</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.437964333423294</v>
+        <v>-4.436715825797991</v>
       </c>
       <c r="G22" t="n">
-        <v>1.618557745415749</v>
+        <v>1.650359619422069</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.376538397826183</v>
       </c>
       <c r="E23" t="n">
-        <v>3.712369684641076</v>
+        <v>3.771439282342772</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.707934742413641</v>
+        <v>-4.7024732077137</v>
       </c>
       <c r="G23" t="n">
-        <v>1.709322481005334</v>
+        <v>1.74119083636542</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.467030967301652</v>
       </c>
       <c r="E24" t="n">
-        <v>3.808522459489053</v>
+        <v>3.868315423113373</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.935088719896274</v>
+        <v>-4.919322575362674</v>
       </c>
       <c r="G24" t="n">
-        <v>1.793031654206298</v>
+        <v>1.833441948644241</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.538185411637078</v>
       </c>
       <c r="E25" t="n">
-        <v>3.858395673226742</v>
+        <v>3.930799356763504</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.067373805555483</v>
+        <v>-5.044787832974825</v>
       </c>
       <c r="G25" t="n">
-        <v>1.828747999115988</v>
+        <v>1.869437027303204</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.587889307596303</v>
       </c>
       <c r="E26" t="n">
-        <v>3.854793481709868</v>
+        <v>3.932753542611805</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.166435902031549</v>
+        <v>-5.144863617615647</v>
       </c>
       <c r="G26" t="n">
-        <v>1.823012914992526</v>
+        <v>1.864628412687723</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.614262100861284</v>
       </c>
       <c r="E27" t="n">
-        <v>3.937416996106221</v>
+        <v>4.015780824496165</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.2615322942674</v>
+        <v>-5.229593798029487</v>
       </c>
       <c r="G27" t="n">
-        <v>1.836380546464813</v>
+        <v>1.878878599379264</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.615698761527532</v>
       </c>
       <c r="E28" t="n">
-        <v>3.877521565808208</v>
+        <v>3.960471997687297</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.205596469002835</v>
+        <v>-5.175004677619182</v>
       </c>
       <c r="G28" t="n">
-        <v>1.78173104390751</v>
+        <v>1.82471886312539</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.592668141708614</v>
       </c>
       <c r="E29" t="n">
-        <v>3.836534896330738</v>
+        <v>3.91857532656012</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.215145387118002</v>
+        <v>-5.170486690206172</v>
       </c>
       <c r="G29" t="n">
-        <v>1.750806235834354</v>
+        <v>1.792211920816749</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.548364188360991</v>
       </c>
       <c r="E30" t="n">
-        <v>3.765701148615926</v>
+        <v>3.844272350035964</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.110318930325991</v>
+        <v>-5.065622113371862</v>
       </c>
       <c r="G30" t="n">
-        <v>1.703520915528107</v>
+        <v>1.742561328126073</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.488737765309969</v>
       </c>
       <c r="E31" t="n">
-        <v>3.664507989295302</v>
+        <v>3.740400419103063</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.048762686025193</v>
+        <v>-5.000223063847214</v>
       </c>
       <c r="G31" t="n">
-        <v>1.604807693679141</v>
+        <v>1.65006319797317</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.42064356966134</v>
       </c>
       <c r="E32" t="n">
-        <v>3.504822217233186</v>
+        <v>3.570938838434029</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.901339979089773</v>
+        <v>-4.851142287552054</v>
       </c>
       <c r="G32" t="n">
-        <v>1.549214033914232</v>
+        <v>1.588960734655873</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.351107590590935</v>
       </c>
       <c r="E33" t="n">
-        <v>3.346286755567417</v>
+        <v>3.413611019708221</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.730026679246132</v>
+        <v>-4.684752877331801</v>
       </c>
       <c r="G33" t="n">
-        <v>1.43649703332713</v>
+        <v>1.478849315199839</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.284667248412366</v>
       </c>
       <c r="E34" t="n">
-        <v>3.17086137052114</v>
+        <v>3.230399387302579</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.530395372301755</v>
+        <v>-4.482206759473245</v>
       </c>
       <c r="G34" t="n">
-        <v>1.308840025763085</v>
+        <v>1.348600754680291</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.224099658114947</v>
       </c>
       <c r="E35" t="n">
-        <v>3.003207594737988</v>
+        <v>3.062090556712599</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.377375118355481</v>
+        <v>-4.32750983358659</v>
       </c>
       <c r="G35" t="n">
-        <v>1.244465947935711</v>
+        <v>1.282445098556136</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.168748629186245</v>
       </c>
       <c r="E36" t="n">
-        <v>2.826852690580347</v>
+        <v>2.873814143007241</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.163104190367459</v>
+        <v>-4.116360479622164</v>
       </c>
       <c r="G36" t="n">
-        <v>1.165944760011166</v>
+        <v>1.201313450135109</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.118149376445832</v>
       </c>
       <c r="E37" t="n">
-        <v>2.597074834346345</v>
+        <v>2.637051475183119</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.048948386903908</v>
+        <v>-3.995430287201974</v>
       </c>
       <c r="G37" t="n">
-        <v>1.119039420286534</v>
+        <v>1.14679081107857</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.070165507206287</v>
       </c>
       <c r="E38" t="n">
-        <v>2.382229056120488</v>
+        <v>2.418526655435118</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.889878634725308</v>
+        <v>-3.834328889249125</v>
       </c>
       <c r="G38" t="n">
-        <v>1.040961034773308</v>
+        <v>1.068641674766842</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.023524784321536</v>
       </c>
       <c r="E39" t="n">
-        <v>2.203718692291219</v>
+        <v>2.232404481560034</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.779101181890265</v>
+        <v>-3.718509222179406</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9602496216985605</v>
+        <v>0.981629781101287</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9767528377481171</v>
       </c>
       <c r="E40" t="n">
-        <v>1.988615527539775</v>
+        <v>2.015139148009518</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.678876576604317</v>
+        <v>-3.618020521240426</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8405917238100661</v>
+        <v>0.8644304734607638</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9280370341314708</v>
       </c>
       <c r="E41" t="n">
-        <v>1.759087738783239</v>
+        <v>1.783258285282088</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.537305753601957</v>
+        <v>-3.472754493817988</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7793575176265913</v>
+        <v>0.7988877876167408</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8768938296019911</v>
       </c>
       <c r="E42" t="n">
-        <v>1.522755674956901</v>
+        <v>1.548694991418319</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.475675403938935</v>
+        <v>-3.406364628153962</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7220548601254345</v>
+        <v>0.7380951640032317</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8222539377405114</v>
       </c>
       <c r="E43" t="n">
-        <v>1.322413200503436</v>
+        <v>1.342480200689124</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.360330255155725</v>
+        <v>-3.284436300546273</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6536943407548355</v>
+        <v>0.6674931861455835</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7647843618191849</v>
       </c>
       <c r="E44" t="n">
-        <v>1.091800362862965</v>
+        <v>1.110425510568821</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.307930445014608</v>
+        <v>-3.225132188344367</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6022005677790271</v>
+        <v>0.6148527622974889</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7044819913288844</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9794761511916896</v>
+        <v>0.994729047475805</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.204232951395257</v>
+        <v>-3.122377937051607</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5328251404023193</v>
+        <v>0.546953952879188</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6429296790018056</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8143370783587691</v>
+        <v>0.8301486619827858</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.1261002829418</v>
+        <v>-3.04091052729803</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4268806990098281</v>
+        <v>0.4416810341517965</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5805042134443003</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6500067603432167</v>
+        <v>0.668922840211881</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.08548322539444</v>
+        <v>-2.99305005179361</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3704770645861979</v>
+        <v>0.3861233597068159</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5186700803830074</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5103654214017488</v>
+        <v>0.5304604779385671</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.98411684860162</v>
+        <v>-2.896868000753149</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3105145430137429</v>
+        <v>0.3259302881185501</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4573968290636641</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4059744479729349</v>
+        <v>0.4232138559012188</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.909903225456608</v>
+        <v>-2.823109073472652</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2530880716152062</v>
+        <v>0.2661379344149077</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3981704829911021</v>
       </c>
       <c r="E50" t="n">
-        <v>0.266662466196911</v>
+        <v>0.2804613115876591</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.831134409737303</v>
+        <v>-2.748106517932267</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2065846696165506</v>
+        <v>0.2151381971872653</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3410157230822821</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1962257768426615</v>
+        <v>0.2075556633339335</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.714349848156969</v>
+        <v>-2.63567374038053</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1438360303927104</v>
+        <v>0.154140030305692</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2878830970606943</v>
       </c>
       <c r="E52" t="n">
-        <v>0.09315345191697699</v>
+        <v>0.1060691321677939</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.615074889364718</v>
+        <v>-2.540765203713118</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1025163442257364</v>
+        <v>0.1159699745134451</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2390257482898893</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.01894813870728582</v>
+        <v>-0.006480140233202018</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.51660380602442</v>
+        <v>-2.443715845470321</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1018253040989809</v>
+        <v>0.1110259575077253</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1958341795526901</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.0958652352519834</v>
+        <v>-0.08871147563440543</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.446401936130719</v>
+        <v>-2.37713934407921</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06047817150155328</v>
+        <v>0.07059858529083381</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1577079781421716</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.102121801554065</v>
+        <v>-0.1006598216918999</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.390252638629293</v>
+        <v>-2.318898628577214</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03132152347028912</v>
+        <v>0.04098205706930161</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1245522236555348</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1696058649121771</v>
+        <v>-0.1671826500634571</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.346795180490317</v>
+        <v>-2.282218608998263</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.01527031702649503</v>
+        <v>-0.00493765084170618</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.09525595984016735</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2796459236490315</v>
+        <v>-0.2750050372196555</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.27849992263213</v>
+        <v>-2.220819724232066</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0337155381327098</v>
+        <v>-0.02172815715190347</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.06962107613593993</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3090910641603974</v>
+        <v>-0.3083012168840087</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.255551657169484</v>
+        <v>-2.20473794574825</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.06090885150552196</v>
+        <v>-0.04766015456520065</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.04660105227182536</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3569186039482732</v>
+        <v>-0.3641595822226261</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.204781250116299</v>
+        <v>-2.155400242364746</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09391043948300588</v>
+        <v>-0.08019332346294206</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.02581394813302468</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3906008634010079</v>
+        <v>-0.3998497005432155</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.227348315155977</v>
+        <v>-2.17908773168761</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1327642163538874</v>
+        <v>-0.1150618786319518</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.005999150055259883</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4324042166646431</v>
+        <v>-0.4472441966506001</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.176674275569718</v>
+        <v>-2.134121939715036</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.100306067699386</v>
+        <v>-0.08679937431280027</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.01354229470992513</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.452681639483809</v>
+        <v>-0.4677204536103859</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.124415662065268</v>
+        <v>-2.082060330589176</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.14504862870427</v>
+        <v>-0.1294785736682456</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.03344319991297452</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5062015689477743</v>
+        <v>-0.51461237508013</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.133926155177801</v>
+        <v>-2.094656412405377</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1883725142150381</v>
+        <v>-0.1738606715531716</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.05369403937321453</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5634017597752374</v>
+        <v>-0.568946548647554</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.179426847583882</v>
+        <v>-2.138570701131237</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1838920369236469</v>
+        <v>-0.1662189753941951</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.07424026242030976</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.581934809458904</v>
+        <v>-0.5891074766174611</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.241461879615927</v>
+        <v>-2.204692811618171</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2015358222606147</v>
+        <v>-0.1899644071813505</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.09531760403100226</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.6342239189971917</v>
+        <v>-0.6416289659335899</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.287173604576164</v>
+        <v>-2.251222440205927</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2045762768342038</v>
+        <v>-0.1966796338323467</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1168026138217539</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.6774130120383984</v>
+        <v>-0.6812805190496579</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.27540152559425</v>
+        <v>-2.242922639636739</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.209766091872653</v>
+        <v>-0.2047885292297121</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1391204452162111</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.7554956669963616</v>
+        <v>-0.7540440557857012</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.321618264874834</v>
+        <v>-2.29641329290822</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2355541480062376</v>
+        <v>-0.2297781991974335</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1627833770126264</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.7503558654534057</v>
+        <v>-0.7527540735543791</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.383779550486966</v>
+        <v>-2.355515216405784</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2221694387550015</v>
+        <v>-0.2220187883478447</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1879660342483176</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7573967897457853</v>
+        <v>-0.7601639998561912</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.399701529753474</v>
+        <v>-2.370482669813181</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.217285193975603</v>
+        <v>-0.2118074963777287</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2141561319112613</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7929777322652367</v>
+        <v>-0.7972172908893125</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.434658523420612</v>
+        <v>-2.407771390227527</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.235185145996805</v>
+        <v>-0.2329278295721605</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2402467253423432</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.7785524983394684</v>
+        <v>-0.7854183753976213</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.507803260579623</v>
+        <v>-2.487394094894279</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2599759818239066</v>
+        <v>-0.2558065640776569</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2648498390848922</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.7605525193272797</v>
+        <v>-0.7689316095844445</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.50555875248919</v>
+        <v>-2.489699595052387</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2932892392672088</v>
+        <v>-0.2913289542121405</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2868495926880439</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.74124548030482</v>
+        <v>-0.7434594923614154</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.52586362173881</v>
+        <v>-2.51070343339756</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2970170744434929</v>
+        <v>-0.2901261906375934</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3050348761396914</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6732557927056837</v>
+        <v>-0.6830932033009531</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.539094021058828</v>
+        <v>-2.527950770294642</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2744981931372779</v>
+        <v>-0.2760394626874202</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.318530985126044</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5846141909918582</v>
+        <v>-0.5872490483154098</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.526416209871943</v>
+        <v>-2.515901177404807</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2554881854843944</v>
+        <v>-0.251676181254719</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3260733261022727</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5391049596963018</v>
+        <v>-0.5493699246859717</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.528710121537193</v>
+        <v>-2.515369326574683</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2382591462076153</v>
+        <v>-0.2344459221365864</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3266389400277984</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.3852396606523925</v>
+        <v>-0.3944287255682787</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.539946690164922</v>
+        <v>-2.529172441410168</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2685959907483869</v>
+        <v>-0.2627261141553636</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3207217154348366</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.294492002841756</v>
+        <v>-0.3019019291435681</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.533512636945907</v>
+        <v>-2.526197858269668</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2282235113924027</v>
+        <v>-0.2221401625625176</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3103286807857454</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1698339752452809</v>
+        <v>-0.1804490347034041</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.502280428851669</v>
+        <v>-2.492932784559828</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2134439135534438</v>
+        <v>-0.2081254052522007</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2964014125499366</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02842562009708934</v>
+        <v>0.02668490648565038</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.484922086391419</v>
+        <v>-2.475114561909311</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2121228253676075</v>
+        <v>-0.2074374147288289</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2799138472683071</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1831380989610017</v>
+        <v>0.1888609846709287</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.447589451688347</v>
+        <v>-2.441511592144553</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.166253130952093</v>
+        <v>-0.1542535515577518</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2609887352883042</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3340031981959873</v>
+        <v>0.3383360746836055</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.395568707247829</v>
+        <v>-2.396590934302059</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1210238532471641</v>
+        <v>-0.1132546836667473</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2399653103187581</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5410291834252574</v>
+        <v>0.5417867049057785</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.289817610709867</v>
+        <v>-2.292026133480372</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.105167135493068</v>
+        <v>-0.09589573128582081</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2171011775885192</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7091227120163455</v>
+        <v>0.7095874715720274</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.222407957674318</v>
+        <v>-2.222565317208919</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.06086432729611935</v>
+        <v>-0.05452725146470703</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.193281860744183</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9272742603101768</v>
+        <v>0.9289917969358993</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.201399239963731</v>
+        <v>-2.198213014348399</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07494922548426225</v>
+        <v>-0.06736608171025366</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1697199148892963</v>
       </c>
       <c r="E87" t="n">
-        <v>1.050217190963636</v>
+        <v>1.052013407356659</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.086046162211725</v>
+        <v>-2.084288980742013</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02951928387668316</v>
+        <v>-0.02066201580894786</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1490423210869977</v>
       </c>
       <c r="E88" t="n">
-        <v>1.209227170915915</v>
+        <v>1.21178456831352</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.933031092591202</v>
+        <v>-1.929497212190124</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02751317876467424</v>
+        <v>0.03464376139653579</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1337574205776448</v>
       </c>
       <c r="E89" t="n">
-        <v>1.330752645916613</v>
+        <v>1.343987924602045</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.783392543837157</v>
+        <v>-1.780894918665873</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06099355447340539</v>
+        <v>0.06010977941279745</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1266140760882241</v>
       </c>
       <c r="E90" t="n">
-        <v>1.453277170985823</v>
+        <v>1.459766726986422</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.632140754893113</v>
+        <v>-1.629228993582317</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04200001467879411</v>
+        <v>0.04448300175383546</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1299929678502652</v>
       </c>
       <c r="E91" t="n">
-        <v>1.502771623983251</v>
+        <v>1.510484680861407</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.388550025092797</v>
+        <v>-1.380916867823295</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09308880032524169</v>
+        <v>0.09139383076455884</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1445079620793992</v>
       </c>
       <c r="E92" t="n">
-        <v>1.524810497716865</v>
+        <v>1.524461623089766</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.138938158371624</v>
+        <v>-1.137481667795549</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1140706815260516</v>
+        <v>0.1123690028379246</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1685682689427057</v>
       </c>
       <c r="E93" t="n">
-        <v>1.574351304685726</v>
+        <v>1.574482437631227</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.9492503882202706</v>
+        <v>-0.9469827031441214</v>
       </c>
       <c r="G93" t="n">
-        <v>0.08326114846080024</v>
+        <v>0.08632782962348948</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1975378892831066</v>
       </c>
       <c r="E94" t="n">
-        <v>1.602877294737233</v>
+        <v>1.60687288509061</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7279370111381773</v>
+        <v>-0.7203983915735713</v>
       </c>
       <c r="G94" t="n">
-        <v>0.08398329454206993</v>
+        <v>0.08558555615988708</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2250384597877354</v>
       </c>
       <c r="E95" t="n">
-        <v>1.573640137176638</v>
+        <v>1.571560917589604</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5161640132817771</v>
+        <v>-0.5149667389933207</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03252550688618978</v>
+        <v>0.02990467773820338</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2455976307287796</v>
       </c>
       <c r="E96" t="n">
-        <v>1.480201509340189</v>
+        <v>1.482187411063681</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3345125579672565</v>
+        <v>-0.33081704858684</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01192360626699388</v>
+        <v>0.009626035077683948</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.254899942967204</v>
       </c>
       <c r="E97" t="n">
-        <v>1.426816982266462</v>
+        <v>1.427089006888292</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1700181712896588</v>
+        <v>-0.1666690968536352</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01408280146886656</v>
+        <v>-0.0179021247466629</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2528228185460534</v>
       </c>
       <c r="E98" t="n">
-        <v>1.342350897505654</v>
+        <v>1.343506087267414</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.07349639443224838</v>
+        <v>-0.0696105898006865</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.07954497778355887</v>
+        <v>-0.08573811233525865</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2424103369044766</v>
       </c>
       <c r="E99" t="n">
-        <v>1.269374498453425</v>
+        <v>1.261987749137329</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005889051091248597</v>
+        <v>0.01482560884696114</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.08897923081149783</v>
+        <v>-0.09709605517766098</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2287792516704479</v>
       </c>
       <c r="E100" t="n">
-        <v>1.144111429545616</v>
+        <v>1.131418980262489</v>
       </c>
       <c r="F100" t="n">
-        <v>0.07529192489841011</v>
+        <v>0.0807299776522958</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.08764960373618706</v>
+        <v>-0.09810547389767903</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2176462116155057</v>
       </c>
       <c r="E101" t="n">
-        <v>1.033586483870747</v>
+        <v>1.024430354671405</v>
       </c>
       <c r="F101" t="n">
-        <v>0.111530361907396</v>
+        <v>0.1215873439462947</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1406175549876954</v>
+        <v>-0.1463404406976224</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2153365727627123</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9150984138402554</v>
+        <v>0.9032409459635963</v>
       </c>
       <c r="F102" t="n">
-        <v>0.141992240186901</v>
+        <v>0.1488849537548308</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1397844033432576</v>
+        <v>-0.1470211121728733</v>
       </c>
     </row>
   </sheetData>
